--- a/nacl_ucl3_paper/versionJ/imagedata/fig5.xlsx
+++ b/nacl_ucl3_paper/versionJ/imagedata/fig5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/papers/nacl_ucl3_paper/versionJ/imagedata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A3E04-8899-074B-8E32-7128F2A6BFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D36DB-2A54-554B-9ED2-D2DA3C11D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="7760" windowWidth="26840" windowHeight="15940" xr2:uid="{BEE49EE9-C42B-204A-9D2D-01096B0C0C7A}"/>
+    <workbookView xWindow="20400" yWindow="9320" windowWidth="26840" windowHeight="15940" xr2:uid="{BEE49EE9-C42B-204A-9D2D-01096B0C0C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
